--- a/TEACHING HRD-035 EMPLOYEE.xlsx
+++ b/TEACHING HRD-035 EMPLOYEE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610C572F-82BB-41DF-A68B-692AA7197989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56923FE4-414E-4869-9C14-5EE14388E661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     <t>PRINCIPAL NAME-DR AZAD CHANDRA SEKHAR PRASAD CHAURASIYA                                    MONTH AND YEAR - JULY 2021      MOBILE NUMBER- 9431456363</t>
   </si>
   <si>
-    <t>RS. SEVEN LAC FOUR THOUSAND  FORTY SIX ONLY</t>
+    <t>RS. SEVEN LAC FOURTEEN THOUSAND  FORTY SIX ONLY</t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:V15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
